--- a/capiq_data/in_process_data/IQ28756.xlsx
+++ b/capiq_data/in_process_data/IQ28756.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AE20D-4366-449A-8E6A-CDD2077B6D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905B4C4-34DF-4BC0-B07E-CFEF945A7ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"71d55e1e-c145-4e05-8761-e6e30140db83"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d4632545-f695-4b0d-86ec-5cd7b574c3bf"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$49</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$49</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$49</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$49</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$49</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$49</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$49</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$49</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$49</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$49</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$49</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$49</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$49</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$49</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$49</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$49</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$49</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$49</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$49</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$49</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$49</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$49</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$49</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$49</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$49</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$49</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,27 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,76 +754,76 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39903</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>17.513999999999999</v>
+        <v>13.414</v>
       </c>
       <c r="D2">
-        <v>106.547</v>
+        <v>68.075999999999993</v>
       </c>
       <c r="E2">
-        <v>404.16300000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>79.966999999999999</v>
+        <v>46.237000000000002</v>
       </c>
       <c r="G2">
-        <v>618.98299999999995</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1484.1179999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>177.64400000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>313.79599999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-11.853</v>
       </c>
       <c r="N2">
-        <v>461.12200000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>858.173</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>469.41300000000001</v>
+        <v>381.53500000000003</v>
       </c>
       <c r="Q2">
-        <v>4.0309999999999997</v>
+        <v>25.834</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39903</v>
       </c>
       <c r="S2">
-        <v>1197</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>625.94500000000005</v>
+        <v>273.26400000000001</v>
       </c>
       <c r="U2">
-        <v>114.804</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>32.902999999999999</v>
+        <v>45.575000000000003</v>
       </c>
       <c r="W2">
-        <v>-7.6340000000000003</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-17.356999999999999</v>
+        <v>-12.278</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +832,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>17.513999999999999</v>
+        <v>13.414</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39994</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>32.335000000000001</v>
+        <v>20.808</v>
       </c>
       <c r="D3">
-        <v>111.005</v>
+        <v>88.11</v>
       </c>
       <c r="E3">
-        <v>532.95100000000002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>84.796000000000006</v>
+        <v>61.966999999999999</v>
       </c>
       <c r="G3">
-        <v>759.86900000000003</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1622.221</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>250.76499999999999</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>317.28699999999998</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.7290000000000001</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>555.91700000000003</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>954.55399999999997</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>482.42099999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.9749999999999996</v>
+        <v>-25.739000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39994</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>667.66700000000003</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>119.779</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-8.7940000000000005</v>
+        <v>44.113999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>8.9920000000000009</v>
+        <v>89.147000000000006</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +915,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>32.335000000000001</v>
+        <v>20.808</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>40086</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>36.713999999999999</v>
+        <v>29.882000000000001</v>
       </c>
       <c r="D4">
-        <v>134.21299999999999</v>
+        <v>100.575</v>
       </c>
       <c r="E4">
-        <v>549.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>99.557000000000002</v>
+        <v>76.597999999999999</v>
       </c>
       <c r="G4">
-        <v>755.27200000000005</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1618.9090000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>234.87299999999999</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>285.291</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +959,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>541.98800000000006</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>905.87900000000002</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>462.53399999999999</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-18.579000000000001</v>
+        <v>-1.431</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>40086</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>713.03</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>101.2</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>11.247999999999999</v>
+        <v>60.54</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-27.696000000000002</v>
+        <v>-0.66600000000000004</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +998,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>36.715000000000003</v>
+        <v>29.882000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40178</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>40.514000000000003</v>
+        <v>24.948</v>
       </c>
       <c r="D5">
-        <v>134.21299999999999</v>
+        <v>97.311999999999998</v>
       </c>
       <c r="E5">
-        <v>569.53</v>
+        <v>163.46100000000001</v>
       </c>
       <c r="F5">
-        <v>99.988</v>
+        <v>71.564999999999998</v>
       </c>
       <c r="G5">
-        <v>786.93299999999999</v>
+        <v>347.24200000000002</v>
       </c>
       <c r="H5">
-        <v>1739.5429999999999</v>
+        <v>1209.5450000000001</v>
       </c>
       <c r="I5">
-        <v>241.423</v>
+        <v>175.578</v>
       </c>
       <c r="J5">
-        <v>281.48099999999999</v>
+        <v>328.93</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1042,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>604.11699999999996</v>
+        <v>320.74099999999999</v>
       </c>
       <c r="O5">
-        <v>977.71900000000005</v>
+        <v>735.49599999999998</v>
       </c>
       <c r="P5">
-        <v>446.72399999999999</v>
+        <v>357.93400000000003</v>
       </c>
       <c r="Q5">
-        <v>36.084000000000003</v>
+        <v>15.682</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40178</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="T5">
-        <v>761.82399999999996</v>
+        <v>474.04899999999998</v>
       </c>
       <c r="U5">
-        <v>137.28399999999999</v>
+        <v>84.700999999999993</v>
       </c>
       <c r="V5">
-        <v>68.063000000000002</v>
+        <v>28.561</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-5.2930000000000001</v>
+        <v>-3.9649999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,81 +1081,81 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>40.514000000000003</v>
+        <v>24.948</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40268</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>37.771999999999998</v>
+        <v>27.344999999999999</v>
       </c>
       <c r="D6">
-        <v>140.16</v>
+        <v>104.202</v>
       </c>
       <c r="E6">
-        <v>761.79100000000005</v>
+        <v>424.54399999999998</v>
       </c>
       <c r="F6">
-        <v>99.534999999999997</v>
+        <v>75.091999999999999</v>
       </c>
       <c r="G6">
-        <v>1124.268</v>
+        <v>616.54399999999998</v>
       </c>
       <c r="H6">
-        <v>2349.1689999999999</v>
+        <v>1474.4670000000001</v>
       </c>
       <c r="I6">
-        <v>478.88200000000001</v>
+        <v>235.40700000000001</v>
       </c>
       <c r="J6">
-        <v>278.42899999999997</v>
+        <v>326.68299999999999</v>
       </c>
       <c r="K6">
-        <v>405</v>
+        <v>196</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-12.625</v>
       </c>
       <c r="N6">
-        <v>1126.5519999999999</v>
+        <v>558.24900000000002</v>
       </c>
       <c r="O6">
-        <v>1537.7329999999999</v>
+        <v>972.14400000000001</v>
       </c>
       <c r="P6">
-        <v>704.26499999999999</v>
+        <v>538.03800000000001</v>
       </c>
       <c r="Q6">
-        <v>147.875</v>
+        <v>1.6559999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40268</v>
       </c>
       <c r="S6">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>811.43600000000004</v>
+        <v>502.32299999999998</v>
       </c>
       <c r="U6">
-        <v>285.15899999999999</v>
+        <v>86.356999999999999</v>
       </c>
       <c r="V6">
-        <v>209.108</v>
+        <v>42.792999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>260.21800000000002</v>
+        <v>-35.377000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1164,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>37.771999999999998</v>
+        <v>27.344999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40359</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>42.079000000000001</v>
+        <v>29.638999999999999</v>
       </c>
       <c r="D7">
-        <v>146.16499999999999</v>
+        <v>111.437</v>
       </c>
       <c r="E7">
-        <v>940.81</v>
+        <v>435.82900000000001</v>
       </c>
       <c r="F7">
-        <v>110.193</v>
+        <v>79.864999999999995</v>
       </c>
       <c r="G7">
-        <v>1306.78</v>
+        <v>606.09799999999996</v>
       </c>
       <c r="H7">
-        <v>2560.9160000000002</v>
+        <v>1463.663</v>
       </c>
       <c r="I7">
-        <v>534.11099999999999</v>
+        <v>214.535</v>
       </c>
       <c r="J7">
-        <v>274.88299999999998</v>
+        <v>316.81400000000002</v>
       </c>
       <c r="K7">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-113.75</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1269.682</v>
+        <v>526.63900000000001</v>
       </c>
       <c r="O7">
-        <v>1677.875</v>
+        <v>930.38</v>
       </c>
       <c r="P7">
-        <v>795.24199999999996</v>
+        <v>518.58299999999997</v>
       </c>
       <c r="Q7">
-        <v>1.96</v>
+        <v>-14.228</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40359</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>883.04100000000005</v>
+        <v>533.28300000000002</v>
       </c>
       <c r="U7">
-        <v>287.11900000000003</v>
+        <v>72.129000000000005</v>
       </c>
       <c r="V7">
-        <v>-113.934</v>
+        <v>9.6850000000000005</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>112.149</v>
+        <v>-8.0839999999999996</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1247,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>42.079000000000001</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40451</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>54.401000000000003</v>
+        <v>33.398000000000003</v>
       </c>
       <c r="D8">
-        <v>171.82</v>
+        <v>111.655</v>
       </c>
       <c r="E8">
-        <v>870.79600000000005</v>
+        <v>423.63400000000001</v>
       </c>
       <c r="F8">
-        <v>127.155</v>
+        <v>80.180000000000007</v>
       </c>
       <c r="G8">
-        <v>1198.317</v>
+        <v>647.64700000000005</v>
       </c>
       <c r="H8">
-        <v>2504.6889999999999</v>
+        <v>1503.527</v>
       </c>
       <c r="I8">
-        <v>474.83699999999999</v>
+        <v>226.34800000000001</v>
       </c>
       <c r="J8">
-        <v>285.95</v>
+        <v>323.52499999999998</v>
       </c>
       <c r="K8">
-        <v>438.11099999999999</v>
+        <v>167</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1291,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1135.2070000000001</v>
+        <v>530.59199999999998</v>
       </c>
       <c r="O8">
-        <v>1562.769</v>
+        <v>938.90899999999999</v>
       </c>
       <c r="P8">
-        <v>740.82299999999998</v>
+        <v>502.52600000000001</v>
       </c>
       <c r="Q8">
-        <v>-31.54</v>
+        <v>38.643999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40451</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>941.92</v>
+        <v>564.61800000000005</v>
       </c>
       <c r="U8">
-        <v>255.57900000000001</v>
+        <v>110.773</v>
       </c>
       <c r="V8">
-        <v>77.135999999999996</v>
+        <v>54.374000000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-62.247999999999998</v>
+        <v>-25.725999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1330,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>54.401000000000003</v>
+        <v>33.398000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40543</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>59.648000000000003</v>
+        <v>17.513999999999999</v>
       </c>
       <c r="D9">
-        <v>186.93199999999999</v>
+        <v>106.547</v>
       </c>
       <c r="E9">
-        <v>933.81799999999998</v>
+        <v>404.16300000000001</v>
       </c>
       <c r="F9">
-        <v>143.434</v>
+        <v>79.966999999999999</v>
       </c>
       <c r="G9">
-        <v>1317.9690000000001</v>
+        <v>618.98299999999995</v>
       </c>
       <c r="H9">
-        <v>2842.1210000000001</v>
+        <v>1484.1179999999999</v>
       </c>
       <c r="I9">
-        <v>533.11300000000006</v>
+        <v>177.64400000000001</v>
       </c>
       <c r="J9">
-        <v>278.863</v>
+        <v>313.79599999999999</v>
       </c>
       <c r="K9">
-        <v>562.83000000000004</v>
+        <v>144</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1374,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1355.4010000000001</v>
+        <v>461.12200000000001</v>
       </c>
       <c r="O9">
-        <v>1807.0530000000001</v>
+        <v>858.173</v>
       </c>
       <c r="P9">
-        <v>862.50199999999995</v>
+        <v>469.41300000000001</v>
       </c>
       <c r="Q9">
-        <v>44.481999999999999</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40543</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1197</v>
       </c>
       <c r="T9">
-        <v>1035.068</v>
+        <v>625.94500000000005</v>
       </c>
       <c r="U9">
-        <v>300.06099999999998</v>
+        <v>114.804</v>
       </c>
       <c r="V9">
-        <v>69.929000000000002</v>
+        <v>32.902999999999999</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-7.6340000000000003</v>
       </c>
       <c r="X9">
-        <v>126.25</v>
+        <v>-17.356999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,81 +1413,81 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>59.648000000000003</v>
+        <v>17.513999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40633</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>60.070999999999998</v>
+        <v>32.335000000000001</v>
       </c>
       <c r="D10">
-        <v>202.61699999999999</v>
+        <v>111.005</v>
       </c>
       <c r="E10">
-        <v>823.44100000000003</v>
+        <v>532.95100000000002</v>
       </c>
       <c r="F10">
-        <v>152.733</v>
+        <v>84.796000000000006</v>
       </c>
       <c r="G10">
-        <v>1195.354</v>
+        <v>759.86900000000003</v>
       </c>
       <c r="H10">
-        <v>2721.87</v>
+        <v>1622.221</v>
       </c>
       <c r="I10">
-        <v>418.60899999999998</v>
+        <v>250.76499999999999</v>
       </c>
       <c r="J10">
-        <v>485.21699999999998</v>
+        <v>317.28699999999998</v>
       </c>
       <c r="K10">
-        <v>398</v>
+        <v>154</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-1.7290000000000001</v>
       </c>
       <c r="N10">
-        <v>1142.222</v>
+        <v>555.91700000000003</v>
       </c>
       <c r="O10">
-        <v>1808.048</v>
+        <v>954.55399999999997</v>
       </c>
       <c r="P10">
-        <v>925.09199999999998</v>
+        <v>482.42099999999999</v>
       </c>
       <c r="Q10">
-        <v>-16.411999999999999</v>
+        <v>4.9749999999999996</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40633</v>
       </c>
       <c r="S10">
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>913.822</v>
+        <v>667.66700000000003</v>
       </c>
       <c r="U10">
-        <v>283.649</v>
+        <v>119.779</v>
       </c>
       <c r="V10">
-        <v>102.32899999999999</v>
+        <v>-8.7940000000000005</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-114.163</v>
+        <v>8.9920000000000009</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1496,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>60.070999999999998</v>
+        <v>32.335000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40724</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>64.662000000000006</v>
+        <v>36.713999999999999</v>
       </c>
       <c r="D11">
-        <v>193.65100000000001</v>
+        <v>134.21299999999999</v>
       </c>
       <c r="E11">
-        <v>1011.4640000000001</v>
+        <v>549.79999999999995</v>
       </c>
       <c r="F11">
-        <v>149.84700000000001</v>
+        <v>99.557000000000002</v>
       </c>
       <c r="G11">
-        <v>1318.066</v>
+        <v>755.27200000000005</v>
       </c>
       <c r="H11">
-        <v>2890.384</v>
+        <v>1618.9090000000001</v>
       </c>
       <c r="I11">
-        <v>501.036</v>
+        <v>234.87299999999999</v>
       </c>
       <c r="J11">
-        <v>491.988</v>
+        <v>285.291</v>
       </c>
       <c r="K11">
-        <v>460</v>
+        <v>162</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1239.829</v>
+        <v>541.98800000000006</v>
       </c>
       <c r="O11">
-        <v>1907.3710000000001</v>
+        <v>905.87900000000002</v>
       </c>
       <c r="P11">
-        <v>999.36300000000006</v>
+        <v>462.53399999999999</v>
       </c>
       <c r="Q11">
-        <v>-59.036000000000001</v>
+        <v>-18.579000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40724</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>983.01300000000003</v>
+        <v>713.03</v>
       </c>
       <c r="U11">
-        <v>224.613</v>
+        <v>101.2</v>
       </c>
       <c r="V11">
-        <v>-13.69</v>
+        <v>11.247999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>63.591000000000001</v>
+        <v>-27.696000000000002</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1579,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>64.662000000000006</v>
+        <v>36.715000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40816</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>73.099000000000004</v>
+        <v>40.514000000000003</v>
       </c>
       <c r="D12">
-        <v>220.869</v>
+        <v>134.21299999999999</v>
       </c>
       <c r="E12">
-        <v>1029.675</v>
+        <v>569.53</v>
       </c>
       <c r="F12">
-        <v>169.304</v>
+        <v>99.988</v>
       </c>
       <c r="G12">
-        <v>1405.818</v>
+        <v>786.93299999999999</v>
       </c>
       <c r="H12">
-        <v>3013.0889999999999</v>
+        <v>1739.5429999999999</v>
       </c>
       <c r="I12">
-        <v>528.16099999999994</v>
+        <v>241.423</v>
       </c>
       <c r="J12">
-        <v>485.99700000000001</v>
+        <v>281.48099999999999</v>
       </c>
       <c r="K12">
-        <v>499.34699999999998</v>
+        <v>150</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1623,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1300.576</v>
+        <v>604.11699999999996</v>
       </c>
       <c r="O12">
-        <v>1963.075</v>
+        <v>977.71900000000005</v>
       </c>
       <c r="P12">
-        <v>1034.088</v>
+        <v>446.72399999999999</v>
       </c>
       <c r="Q12">
-        <v>68.292000000000002</v>
+        <v>36.084000000000003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40816</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1050.0139999999999</v>
+        <v>761.82399999999996</v>
       </c>
       <c r="U12">
-        <v>292.90499999999997</v>
+        <v>137.28399999999999</v>
       </c>
       <c r="V12">
-        <v>96.402000000000001</v>
+        <v>68.063000000000002</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>46.493000000000002</v>
+        <v>-5.2930000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1662,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>73.099000000000004</v>
+        <v>40.514000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40908</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>78.62</v>
+        <v>37.771999999999998</v>
       </c>
       <c r="D13">
-        <v>225.15</v>
+        <v>140.16</v>
       </c>
       <c r="E13">
-        <v>1055.9010000000001</v>
+        <v>761.79100000000005</v>
       </c>
       <c r="F13">
-        <v>174.733</v>
+        <v>99.534999999999997</v>
       </c>
       <c r="G13">
-        <v>1490.5239999999999</v>
+        <v>1124.268</v>
       </c>
       <c r="H13">
-        <v>3475.105</v>
+        <v>2349.1689999999999</v>
       </c>
       <c r="I13">
-        <v>567.41999999999996</v>
+        <v>478.88200000000001</v>
       </c>
       <c r="J13">
-        <v>479.08199999999999</v>
+        <v>278.42899999999997</v>
       </c>
       <c r="K13">
-        <v>627.39</v>
+        <v>405</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1706,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1596.96</v>
+        <v>1126.5519999999999</v>
       </c>
       <c r="O13">
-        <v>2301.203</v>
+        <v>1537.7329999999999</v>
       </c>
       <c r="P13">
-        <v>1133.972</v>
+        <v>704.26499999999999</v>
       </c>
       <c r="Q13">
-        <v>52.783999999999999</v>
+        <v>147.875</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40908</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="T13">
-        <v>1173.902</v>
+        <v>811.43600000000004</v>
       </c>
       <c r="U13">
-        <v>345.68900000000002</v>
+        <v>285.15899999999999</v>
       </c>
       <c r="V13">
-        <v>125.29900000000001</v>
+        <v>209.108</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>143.52099999999999</v>
+        <v>260.21800000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,81 +1745,81 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>78.62</v>
+        <v>37.771999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40999</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>68.12</v>
+        <v>42.079000000000001</v>
       </c>
       <c r="D14">
-        <v>255.501</v>
+        <v>146.16499999999999</v>
       </c>
       <c r="E14">
-        <v>922.351</v>
+        <v>940.81</v>
       </c>
       <c r="F14">
-        <v>199.114</v>
+        <v>110.193</v>
       </c>
       <c r="G14">
-        <v>1353.5119999999999</v>
+        <v>1306.78</v>
       </c>
       <c r="H14">
-        <v>3932.2350000000001</v>
+        <v>2560.9160000000002</v>
       </c>
       <c r="I14">
-        <v>467.202</v>
+        <v>534.11099999999999</v>
       </c>
       <c r="J14">
-        <v>474.93900000000002</v>
+        <v>274.88299999999998</v>
       </c>
       <c r="K14">
-        <v>983.93799999999999</v>
+        <v>441</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-113.75</v>
       </c>
       <c r="N14">
-        <v>1908.8979999999999</v>
+        <v>1269.682</v>
       </c>
       <c r="O14">
-        <v>2688.3420000000001</v>
+        <v>1677.875</v>
       </c>
       <c r="P14">
-        <v>1486.3779999999999</v>
+        <v>795.24199999999996</v>
       </c>
       <c r="Q14">
-        <v>-7.5839999999999996</v>
+        <v>1.96</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40999</v>
       </c>
       <c r="S14">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1243.893</v>
+        <v>883.04100000000005</v>
       </c>
       <c r="U14">
-        <v>338.10500000000002</v>
+        <v>287.11900000000003</v>
       </c>
       <c r="V14">
-        <v>167.67400000000001</v>
+        <v>-113.934</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>182.12</v>
+        <v>112.149</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1828,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>68.12</v>
+        <v>42.079000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41090</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>75.108999999999995</v>
+        <v>54.401000000000003</v>
       </c>
       <c r="D15">
-        <v>253.90799999999999</v>
+        <v>171.82</v>
       </c>
       <c r="E15">
-        <v>1076.2529999999999</v>
+        <v>870.79600000000005</v>
       </c>
       <c r="F15">
-        <v>199.429</v>
+        <v>127.155</v>
       </c>
       <c r="G15">
-        <v>1471.4090000000001</v>
+        <v>1198.317</v>
       </c>
       <c r="H15">
-        <v>4036.7170000000001</v>
+        <v>2504.6889999999999</v>
       </c>
       <c r="I15">
-        <v>578.50699999999995</v>
+        <v>474.83699999999999</v>
       </c>
       <c r="J15">
-        <v>459.916</v>
+        <v>285.95</v>
       </c>
       <c r="K15">
-        <v>891.99300000000005</v>
+        <v>438.11099999999999</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-145.279</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1910.0930000000001</v>
+        <v>1135.2070000000001</v>
       </c>
       <c r="O15">
-        <v>2670.5369999999998</v>
+        <v>1562.769</v>
       </c>
       <c r="P15">
-        <v>1386.2840000000001</v>
+        <v>740.82299999999998</v>
       </c>
       <c r="Q15">
-        <v>-54.731000000000002</v>
+        <v>-31.54</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>41090</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1366.18</v>
+        <v>941.92</v>
       </c>
       <c r="U15">
-        <v>283.37400000000002</v>
+        <v>255.57900000000001</v>
       </c>
       <c r="V15">
-        <v>51.494</v>
+        <v>77.135999999999996</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-80.893000000000001</v>
+        <v>-62.247999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +1911,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>75.108999999999995</v>
+        <v>54.401000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41182</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>88.549000000000007</v>
+        <v>59.648000000000003</v>
       </c>
       <c r="D16">
-        <v>273.50200000000001</v>
+        <v>186.93199999999999</v>
       </c>
       <c r="E16">
-        <v>1112.9269999999999</v>
+        <v>933.81799999999998</v>
       </c>
       <c r="F16">
-        <v>214.33</v>
+        <v>143.434</v>
       </c>
       <c r="G16">
-        <v>1523.0540000000001</v>
+        <v>1317.9690000000001</v>
       </c>
       <c r="H16">
-        <v>4253.3649999999998</v>
+        <v>2842.1210000000001</v>
       </c>
       <c r="I16">
-        <v>573.48199999999997</v>
+        <v>533.11300000000006</v>
       </c>
       <c r="J16">
-        <v>450.20699999999999</v>
+        <v>278.863</v>
       </c>
       <c r="K16">
-        <v>979.899</v>
+        <v>562.83000000000004</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +1955,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2027.9880000000001</v>
+        <v>1355.4010000000001</v>
       </c>
       <c r="O16">
-        <v>2777.8449999999998</v>
+        <v>1807.0530000000001</v>
       </c>
       <c r="P16">
-        <v>1471.356</v>
+        <v>862.50199999999995</v>
       </c>
       <c r="Q16">
-        <v>14.268000000000001</v>
+        <v>44.481999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41182</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1475.52</v>
+        <v>1035.068</v>
       </c>
       <c r="U16">
-        <v>297.642</v>
+        <v>300.06099999999998</v>
       </c>
       <c r="V16">
-        <v>106.227</v>
+        <v>69.929000000000002</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>82.674999999999997</v>
+        <v>126.25</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +1994,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>88.549000000000007</v>
+        <v>59.648000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41274</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>95.509</v>
+        <v>60.070999999999998</v>
       </c>
       <c r="D17">
-        <v>295.28300000000002</v>
+        <v>202.61699999999999</v>
       </c>
       <c r="E17">
-        <v>1109.2619999999999</v>
+        <v>823.44100000000003</v>
       </c>
       <c r="F17">
-        <v>228.81800000000001</v>
+        <v>152.733</v>
       </c>
       <c r="G17">
-        <v>1504.675</v>
+        <v>1195.354</v>
       </c>
       <c r="H17">
-        <v>4224.4399999999996</v>
+        <v>2721.87</v>
       </c>
       <c r="I17">
-        <v>612.69100000000003</v>
+        <v>418.60899999999998</v>
       </c>
       <c r="J17">
-        <v>434.82</v>
+        <v>485.21699999999998</v>
       </c>
       <c r="K17">
-        <v>871.82100000000003</v>
+        <v>398</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2038,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1928.69</v>
+        <v>1142.222</v>
       </c>
       <c r="O17">
-        <v>2665.6329999999998</v>
+        <v>1808.048</v>
       </c>
       <c r="P17">
-        <v>1354.7650000000001</v>
+        <v>925.09199999999998</v>
       </c>
       <c r="Q17">
-        <v>6.4669999999999996</v>
+        <v>-16.411999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41274</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="T17">
-        <v>1558.807</v>
+        <v>913.822</v>
       </c>
       <c r="U17">
-        <v>304.10899999999998</v>
+        <v>283.649</v>
       </c>
       <c r="V17">
-        <v>159.77099999999999</v>
+        <v>102.32899999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-57.975000000000001</v>
+        <v>-114.163</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,81 +2077,81 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>95.509</v>
+        <v>60.070999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41364</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>109.54</v>
+        <v>64.662000000000006</v>
       </c>
       <c r="D18">
-        <v>376.697</v>
+        <v>193.65100000000001</v>
       </c>
       <c r="E18">
-        <v>1348.797</v>
+        <v>1011.4640000000001</v>
       </c>
       <c r="F18">
-        <v>287.22199999999998</v>
+        <v>149.84700000000001</v>
       </c>
       <c r="G18">
-        <v>2137.35</v>
+        <v>1318.066</v>
       </c>
       <c r="H18">
-        <v>8524.7009999999991</v>
+        <v>2890.384</v>
       </c>
       <c r="I18">
-        <v>716.67600000000004</v>
+        <v>501.036</v>
       </c>
       <c r="J18">
-        <v>2168.953</v>
+        <v>491.988</v>
       </c>
       <c r="K18">
-        <v>1323.204</v>
+        <v>460</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="N18">
-        <v>2896.6179999999999</v>
+        <v>1239.829</v>
       </c>
       <c r="O18">
-        <v>5906.1390000000001</v>
+        <v>1907.3710000000001</v>
       </c>
       <c r="P18">
-        <v>3593.7170000000001</v>
+        <v>999.36300000000006</v>
       </c>
       <c r="Q18">
-        <v>172.96</v>
+        <v>-59.036000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41364</v>
       </c>
       <c r="S18">
-        <v>4780</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2618.5619999999999</v>
+        <v>983.01300000000003</v>
       </c>
       <c r="U18">
-        <v>477.06900000000002</v>
+        <v>224.613</v>
       </c>
       <c r="V18">
-        <v>290.84199999999998</v>
+        <v>-13.69</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>2218.4580000000001</v>
+        <v>63.591000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2160,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>109.54</v>
+        <v>64.662000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41455</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>94.153000000000006</v>
+        <v>73.099000000000004</v>
       </c>
       <c r="D19">
-        <v>416.166</v>
+        <v>220.869</v>
       </c>
       <c r="E19">
-        <v>1452.4739999999999</v>
+        <v>1029.675</v>
       </c>
       <c r="F19">
-        <v>307.48399999999998</v>
+        <v>169.304</v>
       </c>
       <c r="G19">
-        <v>2109.2649999999999</v>
+        <v>1405.818</v>
       </c>
       <c r="H19">
-        <v>8504.7240000000002</v>
+        <v>3013.0889999999999</v>
       </c>
       <c r="I19">
-        <v>775.92899999999997</v>
+        <v>528.16099999999994</v>
       </c>
       <c r="J19">
-        <v>2139.7040000000002</v>
+        <v>485.99700000000001</v>
       </c>
       <c r="K19">
-        <v>1234.528</v>
+        <v>499.34699999999998</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-146.61099999999999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2756.279</v>
+        <v>1300.576</v>
       </c>
       <c r="O19">
-        <v>5724.55</v>
+        <v>1963.075</v>
       </c>
       <c r="P19">
-        <v>3475.8119999999999</v>
+        <v>1034.088</v>
       </c>
       <c r="Q19">
-        <v>-97.676000000000002</v>
+        <v>68.292000000000002</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41455</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2780.174</v>
+        <v>1050.0139999999999</v>
       </c>
       <c r="U19">
-        <v>379.39299999999997</v>
+        <v>292.90499999999997</v>
       </c>
       <c r="V19">
-        <v>67.403000000000006</v>
+        <v>96.402000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-142.64099999999999</v>
+        <v>46.493000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2243,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>94.153000000000006</v>
+        <v>73.099000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41547</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>98.677999999999997</v>
+        <v>78.62</v>
       </c>
       <c r="D20">
-        <v>404.60500000000002</v>
+        <v>225.15</v>
       </c>
       <c r="E20">
-        <v>1575.4770000000001</v>
+        <v>1055.9010000000001</v>
       </c>
       <c r="F20">
-        <v>308.31599999999997</v>
+        <v>174.733</v>
       </c>
       <c r="G20">
-        <v>2201.0059999999999</v>
+        <v>1490.5239999999999</v>
       </c>
       <c r="H20">
-        <v>8574.6710000000003</v>
+        <v>3475.105</v>
       </c>
       <c r="I20">
-        <v>815.54399999999998</v>
+        <v>567.41999999999996</v>
       </c>
       <c r="J20">
-        <v>2112.2449999999999</v>
+        <v>479.08199999999999</v>
       </c>
       <c r="K20">
-        <v>1144.741</v>
+        <v>627.39</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2287,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2721.6</v>
+        <v>1596.96</v>
       </c>
       <c r="O20">
-        <v>5667.6670000000004</v>
+        <v>2301.203</v>
       </c>
       <c r="P20">
-        <v>3358.587</v>
+        <v>1133.972</v>
       </c>
       <c r="Q20">
-        <v>4.782</v>
+        <v>52.783999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41547</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2907.0039999999999</v>
+        <v>1173.902</v>
       </c>
       <c r="U20">
-        <v>384.17500000000001</v>
+        <v>345.68900000000002</v>
       </c>
       <c r="V20">
-        <v>131.00899999999999</v>
+        <v>125.29900000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-110.69499999999999</v>
+        <v>143.52099999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2326,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>98.677999999999997</v>
+        <v>78.62</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41639</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>116.77</v>
+        <v>68.12</v>
       </c>
       <c r="D21">
-        <v>451.49299999999999</v>
+        <v>255.501</v>
       </c>
       <c r="E21">
-        <v>1396.9570000000001</v>
+        <v>922.351</v>
       </c>
       <c r="F21">
-        <v>328.80799999999999</v>
+        <v>199.114</v>
       </c>
       <c r="G21">
-        <v>2033.5429999999999</v>
+        <v>1353.5119999999999</v>
       </c>
       <c r="H21">
-        <v>8285.1329999999998</v>
+        <v>3932.2350000000001</v>
       </c>
       <c r="I21">
-        <v>760.41300000000001</v>
+        <v>467.202</v>
       </c>
       <c r="J21">
-        <v>2086.6640000000002</v>
+        <v>474.93900000000002</v>
       </c>
       <c r="K21">
-        <v>900</v>
+        <v>983.93799999999999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2370,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2441.259</v>
+        <v>1908.8979999999999</v>
       </c>
       <c r="O21">
-        <v>5322.5619999999999</v>
+        <v>2688.3420000000001</v>
       </c>
       <c r="P21">
-        <v>3088.288</v>
+        <v>1486.3779999999999</v>
       </c>
       <c r="Q21">
-        <v>38.215000000000003</v>
+        <v>-7.5839999999999996</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41639</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T21">
-        <v>2962.5709999999999</v>
+        <v>1243.893</v>
       </c>
       <c r="U21">
-        <v>422.39</v>
+        <v>338.10500000000002</v>
       </c>
       <c r="V21">
-        <v>326.04000000000002</v>
+        <v>167.67400000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-248.928</v>
+        <v>182.12</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,81 +2409,81 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>116.77</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41729</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>52.83</v>
+        <v>75.108999999999995</v>
       </c>
       <c r="D22">
-        <v>430.601</v>
+        <v>253.90799999999999</v>
       </c>
       <c r="E22">
-        <v>1252.954</v>
+        <v>1076.2529999999999</v>
       </c>
       <c r="F22">
-        <v>318.92700000000002</v>
+        <v>199.429</v>
       </c>
       <c r="G22">
-        <v>1944.624</v>
+        <v>1471.4090000000001</v>
       </c>
       <c r="H22">
-        <v>7889.8059999999996</v>
+        <v>4036.7170000000001</v>
       </c>
       <c r="I22">
-        <v>669.52800000000002</v>
+        <v>578.50699999999995</v>
       </c>
       <c r="J22">
-        <v>2059.9</v>
+        <v>459.916</v>
       </c>
       <c r="K22">
-        <v>774</v>
+        <v>891.99300000000005</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-145.279</v>
       </c>
       <c r="N22">
-        <v>2247.4740000000002</v>
+        <v>1910.0930000000001</v>
       </c>
       <c r="O22">
-        <v>5059.759</v>
+        <v>2670.5369999999998</v>
       </c>
       <c r="P22">
-        <v>2935</v>
+        <v>1386.2840000000001</v>
       </c>
       <c r="Q22">
-        <v>24.762</v>
+        <v>-54.731000000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41729</v>
       </c>
       <c r="S22">
-        <v>5330</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2830.047</v>
+        <v>1366.18</v>
       </c>
       <c r="U22">
-        <v>447.15199999999999</v>
+        <v>283.37400000000002</v>
       </c>
       <c r="V22">
-        <v>230.13200000000001</v>
+        <v>51.494</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-145.80099999999999</v>
+        <v>-80.893000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2492,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>52.83</v>
+        <v>75.108999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41820</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>111.09</v>
+        <v>88.549000000000007</v>
       </c>
       <c r="D23">
-        <v>414.262</v>
+        <v>273.50200000000001</v>
       </c>
       <c r="E23">
-        <v>1431.808</v>
+        <v>1112.9269999999999</v>
       </c>
       <c r="F23">
-        <v>306.21499999999997</v>
+        <v>214.33</v>
       </c>
       <c r="G23">
-        <v>2054.5810000000001</v>
+        <v>1523.0540000000001</v>
       </c>
       <c r="H23">
-        <v>8011.83</v>
+        <v>4253.3649999999998</v>
       </c>
       <c r="I23">
-        <v>796.803</v>
+        <v>573.48199999999997</v>
       </c>
       <c r="J23">
-        <v>2032.905</v>
+        <v>450.20699999999999</v>
       </c>
       <c r="K23">
-        <v>641</v>
+        <v>979.899</v>
       </c>
       <c r="L23">
-        <v>-63</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-135.875</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2238.0140000000001</v>
+        <v>2027.9880000000001</v>
       </c>
       <c r="O23">
-        <v>5024.0609999999997</v>
+        <v>2777.8449999999998</v>
       </c>
       <c r="P23">
-        <v>2775.0329999999999</v>
+        <v>1471.356</v>
       </c>
       <c r="Q23">
-        <v>-47.834000000000003</v>
+        <v>14.268000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41820</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2987.7689999999998</v>
+        <v>1475.52</v>
       </c>
       <c r="U23">
-        <v>399.31799999999998</v>
+        <v>297.642</v>
       </c>
       <c r="V23">
-        <v>122.623</v>
+        <v>106.227</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-158.50700000000001</v>
+        <v>82.674999999999997</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2575,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>111.09</v>
+        <v>88.549000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41912</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>116.253</v>
+        <v>95.509</v>
       </c>
       <c r="D24">
-        <v>417.90499999999997</v>
+        <v>295.28300000000002</v>
       </c>
       <c r="E24">
-        <v>1621.385</v>
+        <v>1109.2619999999999</v>
       </c>
       <c r="F24">
-        <v>314.90600000000001</v>
+        <v>228.81800000000001</v>
       </c>
       <c r="G24">
-        <v>2350.9450000000002</v>
+        <v>1504.675</v>
       </c>
       <c r="H24">
-        <v>8268.7080000000005</v>
+        <v>4224.4399999999996</v>
       </c>
       <c r="I24">
-        <v>904.15099999999995</v>
+        <v>612.69100000000003</v>
       </c>
       <c r="J24">
-        <v>2007.9179999999999</v>
+        <v>434.82</v>
       </c>
       <c r="K24">
-        <v>723</v>
+        <v>871.82100000000003</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2619,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2432.29</v>
+        <v>1928.69</v>
       </c>
       <c r="O24">
-        <v>5186.0029999999997</v>
+        <v>2665.6329999999998</v>
       </c>
       <c r="P24">
-        <v>2832.076</v>
+        <v>1354.7650000000001</v>
       </c>
       <c r="Q24">
-        <v>93.766999999999996</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41912</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3082.7049999999999</v>
+        <v>1558.807</v>
       </c>
       <c r="U24">
-        <v>493.08499999999998</v>
+        <v>304.10899999999998</v>
       </c>
       <c r="V24">
-        <v>89.418999999999997</v>
+        <v>159.77099999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>37.018000000000001</v>
+        <v>-57.975000000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2658,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>116.253</v>
+        <v>95.509</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>42004</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>129.61799999999999</v>
+        <v>109.54</v>
       </c>
       <c r="D25">
-        <v>484.42599999999999</v>
+        <v>376.697</v>
       </c>
       <c r="E25">
-        <v>1990.6859999999999</v>
+        <v>1348.797</v>
       </c>
       <c r="F25">
-        <v>359.97899999999998</v>
+        <v>287.22199999999998</v>
       </c>
       <c r="G25">
-        <v>2685.1559999999999</v>
+        <v>2137.35</v>
       </c>
       <c r="H25">
-        <v>9916.0540000000001</v>
+        <v>8524.7009999999991</v>
       </c>
       <c r="I25">
-        <v>1230.3389999999999</v>
+        <v>716.67600000000004</v>
       </c>
       <c r="J25">
-        <v>2552.357</v>
+        <v>2168.953</v>
       </c>
       <c r="K25">
-        <v>1253.316</v>
+        <v>1323.204</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2702,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3454.973</v>
+        <v>2896.6179999999999</v>
       </c>
       <c r="O25">
-        <v>6737.5330000000004</v>
+        <v>5906.1390000000001</v>
       </c>
       <c r="P25">
-        <v>3936.12</v>
+        <v>3593.7170000000001</v>
       </c>
       <c r="Q25">
-        <v>-87.65</v>
+        <v>172.96</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>42004</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4780</v>
       </c>
       <c r="T25">
-        <v>3178.5210000000002</v>
+        <v>2618.5619999999999</v>
       </c>
       <c r="U25">
-        <v>405.435</v>
+        <v>477.06900000000002</v>
       </c>
       <c r="V25">
-        <v>192.244</v>
+        <v>290.84199999999998</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>1097.902</v>
+        <v>2218.4580000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,81 +2741,81 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>129.61799999999999</v>
+        <v>109.54</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42094</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>95.424000000000007</v>
+        <v>94.153000000000006</v>
       </c>
       <c r="D26">
-        <v>514.95299999999997</v>
+        <v>416.166</v>
       </c>
       <c r="E26">
-        <v>1793.009</v>
+        <v>1452.4739999999999</v>
       </c>
       <c r="F26">
-        <v>390.68700000000001</v>
+        <v>307.48399999999998</v>
       </c>
       <c r="G26">
-        <v>2527.6930000000002</v>
+        <v>2109.2649999999999</v>
       </c>
       <c r="H26">
-        <v>9626.732</v>
+        <v>8504.7240000000002</v>
       </c>
       <c r="I26">
-        <v>1151.432</v>
+        <v>775.92899999999997</v>
       </c>
       <c r="J26">
-        <v>2521.7269999999999</v>
+        <v>2139.7040000000002</v>
       </c>
       <c r="K26">
-        <v>1206.02</v>
+        <v>1234.528</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-146.61099999999999</v>
       </c>
       <c r="N26">
-        <v>3296.3180000000002</v>
+        <v>2756.279</v>
       </c>
       <c r="O26">
-        <v>6542.6940000000004</v>
+        <v>5724.55</v>
       </c>
       <c r="P26">
-        <v>3858.2330000000002</v>
+        <v>3475.8119999999999</v>
       </c>
       <c r="Q26">
-        <v>69.582999999999998</v>
+        <v>-97.676000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42094</v>
       </c>
       <c r="S26">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>3084.038</v>
+        <v>2780.174</v>
       </c>
       <c r="U26">
-        <v>475.01799999999997</v>
+        <v>379.39299999999997</v>
       </c>
       <c r="V26">
-        <v>301.62599999999998</v>
+        <v>67.403000000000006</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-222.44399999999999</v>
+        <v>-142.64099999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2824,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>95.424000000000007</v>
+        <v>94.153000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42185</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>123.693</v>
+        <v>98.677999999999997</v>
       </c>
       <c r="D27">
-        <v>520.43299999999999</v>
+        <v>404.60500000000002</v>
       </c>
       <c r="E27">
-        <v>2036.8330000000001</v>
+        <v>1575.4770000000001</v>
       </c>
       <c r="F27">
-        <v>394.22500000000002</v>
+        <v>308.31599999999997</v>
       </c>
       <c r="G27">
-        <v>2882.0909999999999</v>
+        <v>2201.0059999999999</v>
       </c>
       <c r="H27">
-        <v>10009.954</v>
+        <v>8574.6710000000003</v>
       </c>
       <c r="I27">
-        <v>1246.182</v>
+        <v>815.54399999999998</v>
       </c>
       <c r="J27">
-        <v>2460.6289999999999</v>
+        <v>2112.2449999999999</v>
       </c>
       <c r="K27">
-        <v>1244.4839999999999</v>
+        <v>1144.741</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-193.31200000000001</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3500.665</v>
+        <v>2721.6</v>
       </c>
       <c r="O27">
-        <v>6668.1419999999998</v>
+        <v>5667.6670000000004</v>
       </c>
       <c r="P27">
-        <v>3868.337</v>
+        <v>3358.587</v>
       </c>
       <c r="Q27">
-        <v>91.222999999999999</v>
+        <v>4.782</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42185</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3341.8119999999999</v>
+        <v>2907.0039999999999</v>
       </c>
       <c r="U27">
-        <v>546.55999999999995</v>
+        <v>384.17500000000001</v>
       </c>
       <c r="V27">
-        <v>73.498000000000005</v>
+        <v>131.00899999999999</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>19.094000000000001</v>
+        <v>-110.69499999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +2907,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>123.693</v>
+        <v>98.677999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42277</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>130.98699999999999</v>
+        <v>116.77</v>
       </c>
       <c r="D28">
-        <v>541.23699999999997</v>
+        <v>451.49299999999999</v>
       </c>
       <c r="E28">
-        <v>2170.5630000000001</v>
+        <v>1396.9570000000001</v>
       </c>
       <c r="F28">
-        <v>407.29599999999999</v>
+        <v>328.80799999999999</v>
       </c>
       <c r="G28">
-        <v>3045.3580000000002</v>
+        <v>2033.5429999999999</v>
       </c>
       <c r="H28">
-        <v>10101.710999999999</v>
+        <v>8285.1329999999998</v>
       </c>
       <c r="I28">
-        <v>1240.7660000000001</v>
+        <v>760.41300000000001</v>
       </c>
       <c r="J28">
-        <v>2394.6210000000001</v>
+        <v>2086.6640000000002</v>
       </c>
       <c r="K28">
-        <v>1247.421</v>
+        <v>900</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +2951,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3619.0259999999998</v>
+        <v>2441.259</v>
       </c>
       <c r="O28">
-        <v>6696.2110000000002</v>
+        <v>5322.5619999999999</v>
       </c>
       <c r="P28">
-        <v>3838.0650000000001</v>
+        <v>3088.288</v>
       </c>
       <c r="Q28">
-        <v>30.623999999999999</v>
+        <v>38.215000000000003</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42277</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3405.5</v>
+        <v>2962.5709999999999</v>
       </c>
       <c r="U28">
-        <v>564.57799999999997</v>
+        <v>422.39</v>
       </c>
       <c r="V28">
-        <v>134.245</v>
+        <v>326.04000000000002</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-86.899000000000001</v>
+        <v>-248.928</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +2990,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>130.98699999999999</v>
+        <v>116.77</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42369</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>202.82300000000001</v>
+        <v>52.83</v>
       </c>
       <c r="D29">
-        <v>577.87699999999995</v>
+        <v>430.601</v>
       </c>
       <c r="E29">
-        <v>2250.2550000000001</v>
+        <v>1252.954</v>
       </c>
       <c r="F29">
-        <v>438.90699999999998</v>
+        <v>318.92700000000002</v>
       </c>
       <c r="G29">
-        <v>3521.5010000000002</v>
+        <v>1944.624</v>
       </c>
       <c r="H29">
-        <v>11330.294</v>
+        <v>7889.8059999999996</v>
       </c>
       <c r="I29">
-        <v>1435.585</v>
+        <v>669.52800000000002</v>
       </c>
       <c r="J29">
-        <v>2933.9760000000001</v>
+        <v>2059.9</v>
       </c>
       <c r="K29">
-        <v>1467.24</v>
+        <v>774</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3034,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4172.8980000000001</v>
+        <v>2247.4740000000002</v>
       </c>
       <c r="O29">
-        <v>7899.8760000000002</v>
+        <v>5059.759</v>
       </c>
       <c r="P29">
-        <v>4536.4830000000002</v>
+        <v>2935</v>
       </c>
       <c r="Q29">
-        <v>252.654</v>
+        <v>24.762</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42369</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>5330</v>
       </c>
       <c r="T29">
-        <v>3430.4180000000001</v>
+        <v>2830.047</v>
       </c>
       <c r="U29">
-        <v>834.75599999999997</v>
+        <v>447.15199999999999</v>
       </c>
       <c r="V29">
-        <v>223.852</v>
+        <v>230.13200000000001</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>317.904</v>
+        <v>-145.80099999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,81 +3073,81 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>202.82300000000001</v>
+        <v>52.83</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42460</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>282.697</v>
+        <v>111.09</v>
       </c>
       <c r="D30">
-        <v>609.99099999999999</v>
+        <v>414.262</v>
       </c>
       <c r="E30">
-        <v>2231.011</v>
+        <v>1431.808</v>
       </c>
       <c r="F30">
-        <v>466.36399999999998</v>
+        <v>306.21499999999997</v>
       </c>
       <c r="G30">
-        <v>3549.701</v>
+        <v>2054.5810000000001</v>
       </c>
       <c r="H30">
-        <v>11318.359</v>
+        <v>8011.83</v>
       </c>
       <c r="I30">
-        <v>1437.3140000000001</v>
+        <v>796.803</v>
       </c>
       <c r="J30">
-        <v>2902.1039999999998</v>
+        <v>2032.905</v>
       </c>
       <c r="K30">
-        <v>1481.213</v>
+        <v>641</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-135.875</v>
       </c>
       <c r="N30">
-        <v>4095.502</v>
+        <v>2238.0140000000001</v>
       </c>
       <c r="O30">
-        <v>7641.8370000000004</v>
+        <v>5024.0609999999997</v>
       </c>
       <c r="P30">
-        <v>4518.616</v>
+        <v>2775.0329999999999</v>
       </c>
       <c r="Q30">
-        <v>112.599</v>
+        <v>-47.834000000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42460</v>
       </c>
       <c r="S30">
-        <v>7890</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>3676.5219999999999</v>
+        <v>2987.7689999999998</v>
       </c>
       <c r="U30">
-        <v>913.59500000000003</v>
+        <v>399.31799999999998</v>
       </c>
       <c r="V30">
-        <v>248.46299999999999</v>
+        <v>122.623</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>1.839</v>
+        <v>-158.50700000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3156,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>282.697</v>
+        <v>111.09</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42551</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>174.93700000000001</v>
+        <v>116.253</v>
       </c>
       <c r="D31">
-        <v>585.5</v>
+        <v>417.90499999999997</v>
       </c>
       <c r="E31">
-        <v>2520.7620000000002</v>
+        <v>1621.385</v>
       </c>
       <c r="F31">
-        <v>469.01499999999999</v>
+        <v>314.90600000000001</v>
       </c>
       <c r="G31">
-        <v>3907.0650000000001</v>
+        <v>2350.9450000000002</v>
       </c>
       <c r="H31">
-        <v>11692.465</v>
+        <v>8268.7080000000005</v>
       </c>
       <c r="I31">
-        <v>1609.24</v>
+        <v>904.15099999999995</v>
       </c>
       <c r="J31">
-        <v>2867.5320000000002</v>
+        <v>2007.9179999999999</v>
       </c>
       <c r="K31">
-        <v>1486.5820000000001</v>
+        <v>723</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-473.851</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4307.6760000000004</v>
+        <v>2432.29</v>
       </c>
       <c r="O31">
-        <v>7804.4129999999996</v>
+        <v>5186.0029999999997</v>
       </c>
       <c r="P31">
-        <v>4489.4449999999997</v>
+        <v>2832.076</v>
       </c>
       <c r="Q31">
-        <v>91.631</v>
+        <v>93.766999999999996</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42551</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3888.0520000000001</v>
+        <v>3082.7049999999999</v>
       </c>
       <c r="U31">
-        <v>979.57299999999998</v>
+        <v>493.08499999999998</v>
       </c>
       <c r="V31">
-        <v>200.702</v>
+        <v>89.418999999999997</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-98.992999999999995</v>
+        <v>37.018000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3239,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>174.93700000000001</v>
+        <v>116.253</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42643</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>176.852</v>
+        <v>129.61799999999999</v>
       </c>
       <c r="D32">
-        <v>584.98500000000001</v>
+        <v>484.42599999999999</v>
       </c>
       <c r="E32">
-        <v>2655.9369999999999</v>
+        <v>1990.6859999999999</v>
       </c>
       <c r="F32">
-        <v>473.78399999999999</v>
+        <v>359.97899999999998</v>
       </c>
       <c r="G32">
-        <v>4049.2069999999999</v>
+        <v>2685.1559999999999</v>
       </c>
       <c r="H32">
-        <v>11485.133</v>
+        <v>9916.0540000000001</v>
       </c>
       <c r="I32">
-        <v>1532.741</v>
+        <v>1230.3389999999999</v>
       </c>
       <c r="J32">
-        <v>2832.3159999999998</v>
+        <v>2552.357</v>
       </c>
       <c r="K32">
-        <v>1780.3209999999999</v>
+        <v>1253.316</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3283,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4601.5140000000001</v>
+        <v>3454.973</v>
       </c>
       <c r="O32">
-        <v>8046.0479999999998</v>
+        <v>6737.5330000000004</v>
       </c>
       <c r="P32">
-        <v>4748.0010000000002</v>
+        <v>3936.12</v>
       </c>
       <c r="Q32">
-        <v>-37.063000000000002</v>
+        <v>-87.65</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42643</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3439.085</v>
+        <v>3178.5210000000002</v>
       </c>
       <c r="U32">
-        <v>919.66200000000003</v>
+        <v>405.435</v>
       </c>
       <c r="V32">
-        <v>74.387</v>
+        <v>192.244</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-5.7670000000000003</v>
+        <v>1097.902</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3322,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>176.852</v>
+        <v>129.61799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42735</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>157.69399999999999</v>
+        <v>95.424000000000007</v>
       </c>
       <c r="D33">
-        <v>619.58600000000001</v>
+        <v>514.95299999999997</v>
       </c>
       <c r="E33">
-        <v>2742.3389999999999</v>
+        <v>1793.009</v>
       </c>
       <c r="F33">
-        <v>491.18599999999998</v>
+        <v>390.68700000000001</v>
       </c>
       <c r="G33">
-        <v>4132.991</v>
+        <v>2527.6930000000002</v>
       </c>
       <c r="H33">
-        <v>11450.89</v>
+        <v>9626.732</v>
       </c>
       <c r="I33">
-        <v>1616.9490000000001</v>
+        <v>1151.432</v>
       </c>
       <c r="J33">
-        <v>2773.3780000000002</v>
+        <v>2521.7269999999999</v>
       </c>
       <c r="K33">
-        <v>1541.124</v>
+        <v>1206.02</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3366,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>4484.4679999999998</v>
+        <v>3296.3180000000002</v>
       </c>
       <c r="O33">
-        <v>7888.6419999999998</v>
+        <v>6542.6940000000004</v>
       </c>
       <c r="P33">
-        <v>4472.9260000000004</v>
+        <v>3858.2330000000002</v>
       </c>
       <c r="Q33">
-        <v>3.1120000000000001</v>
+        <v>69.582999999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42735</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="T33">
-        <v>3562.248</v>
+        <v>3084.038</v>
       </c>
       <c r="U33">
-        <v>924.44200000000001</v>
+        <v>475.01799999999997</v>
       </c>
       <c r="V33">
-        <v>280.291</v>
+        <v>301.62599999999998</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-251.572</v>
+        <v>-222.44399999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,81 +3405,81 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>157.69399999999999</v>
+        <v>95.424000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42825</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>302</v>
+        <v>123.693</v>
       </c>
       <c r="D34">
-        <v>643.42200000000003</v>
+        <v>520.43299999999999</v>
       </c>
       <c r="E34">
-        <v>2311.8150000000001</v>
+        <v>2036.8330000000001</v>
       </c>
       <c r="F34">
-        <v>511.81299999999999</v>
+        <v>394.22500000000002</v>
       </c>
       <c r="G34">
-        <v>3875.9859999999999</v>
+        <v>2882.0909999999999</v>
       </c>
       <c r="H34">
-        <v>11202.477000000001</v>
+        <v>10009.954</v>
       </c>
       <c r="I34">
-        <v>1117.6489999999999</v>
+        <v>1246.182</v>
       </c>
       <c r="J34">
-        <v>2748.431</v>
+        <v>2460.6289999999999</v>
       </c>
       <c r="K34">
-        <v>1921.4459999999999</v>
+        <v>1244.4839999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-193.31200000000001</v>
       </c>
       <c r="N34">
-        <v>4495.2129999999997</v>
+        <v>3500.665</v>
       </c>
       <c r="O34">
-        <v>7862.2969999999996</v>
+        <v>6668.1419999999998</v>
       </c>
       <c r="P34">
-        <v>4819.0469999999996</v>
+        <v>3868.337</v>
       </c>
       <c r="Q34">
-        <v>176.34299999999999</v>
+        <v>91.222999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42825</v>
       </c>
       <c r="S34">
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>3340.18</v>
+        <v>3341.8119999999999</v>
       </c>
       <c r="U34">
-        <v>1031.145</v>
+        <v>546.55999999999995</v>
       </c>
       <c r="V34">
-        <v>348.00200000000001</v>
+        <v>73.498000000000005</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-221.483</v>
+        <v>19.094000000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3488,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>302</v>
+        <v>123.693</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42916</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>172.107</v>
+        <v>130.98699999999999</v>
       </c>
       <c r="D35">
-        <v>621.82500000000005</v>
+        <v>541.23699999999997</v>
       </c>
       <c r="E35">
-        <v>2597.4589999999998</v>
+        <v>2170.5630000000001</v>
       </c>
       <c r="F35">
-        <v>492.71100000000001</v>
+        <v>407.29599999999999</v>
       </c>
       <c r="G35">
-        <v>4172.0590000000002</v>
+        <v>3045.3580000000002</v>
       </c>
       <c r="H35">
-        <v>11514.915000000001</v>
+        <v>10101.710999999999</v>
       </c>
       <c r="I35">
-        <v>1518.827</v>
+        <v>1240.7660000000001</v>
       </c>
       <c r="J35">
-        <v>2708.2510000000002</v>
+        <v>2394.6210000000001</v>
       </c>
       <c r="K35">
-        <v>1657.671</v>
+        <v>1247.421</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-386.07600000000002</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4562.098</v>
+        <v>3619.0259999999998</v>
       </c>
       <c r="O35">
-        <v>7983.9480000000003</v>
+        <v>6696.2110000000002</v>
       </c>
       <c r="P35">
-        <v>4594.4690000000001</v>
+        <v>3838.0650000000001</v>
       </c>
       <c r="Q35">
-        <v>7.6779999999999999</v>
+        <v>30.623999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42916</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3530.9670000000001</v>
+        <v>3405.5</v>
       </c>
       <c r="U35">
-        <v>1057.4649999999999</v>
+        <v>564.57799999999997</v>
       </c>
       <c r="V35">
-        <v>297.49400000000003</v>
+        <v>134.245</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-272.91800000000001</v>
+        <v>-86.899000000000001</v>
       </c>
       <c r="Y35">
-        <v>64.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>172.107</v>
+        <v>130.98699999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43008</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>261.65100000000001</v>
+        <v>202.82300000000001</v>
       </c>
       <c r="D36">
-        <v>647.09400000000005</v>
+        <v>577.87699999999995</v>
       </c>
       <c r="E36">
-        <v>2701.183</v>
+        <v>2250.2550000000001</v>
       </c>
       <c r="F36">
-        <v>526.63599999999997</v>
+        <v>438.90699999999998</v>
       </c>
       <c r="G36">
-        <v>4386.3580000000002</v>
+        <v>3521.5010000000002</v>
       </c>
       <c r="H36">
-        <v>11975.592000000001</v>
+        <v>11330.294</v>
       </c>
       <c r="I36">
-        <v>1523.8620000000001</v>
+        <v>1435.585</v>
       </c>
       <c r="J36">
-        <v>2676.3739999999998</v>
+        <v>2933.9760000000001</v>
       </c>
       <c r="K36">
-        <v>1782.278</v>
+        <v>1467.24</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3615,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4749.21</v>
+        <v>4172.8980000000001</v>
       </c>
       <c r="O36">
-        <v>8132.22</v>
+        <v>7899.8760000000002</v>
       </c>
       <c r="P36">
-        <v>4696.768</v>
+        <v>4536.4830000000002</v>
       </c>
       <c r="Q36">
-        <v>116.05500000000001</v>
+        <v>252.654</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>43008</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3843.3719999999998</v>
+        <v>3430.4180000000001</v>
       </c>
       <c r="U36">
-        <v>1170.3389999999999</v>
+        <v>834.75599999999997</v>
       </c>
       <c r="V36">
-        <v>252.52699999999999</v>
+        <v>223.852</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>121.372</v>
+        <v>317.904</v>
       </c>
       <c r="Y36">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>261.65100000000001</v>
+        <v>202.82300000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43100</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>225.80500000000001</v>
+        <v>282.697</v>
       </c>
       <c r="D37">
-        <v>681.048</v>
+        <v>609.99099999999999</v>
       </c>
       <c r="E37">
-        <v>2695.998</v>
+        <v>2231.011</v>
       </c>
       <c r="F37">
-        <v>546.03200000000004</v>
+        <v>466.36399999999998</v>
       </c>
       <c r="G37">
-        <v>4440.0069999999996</v>
+        <v>3549.701</v>
       </c>
       <c r="H37">
-        <v>11914.194</v>
+        <v>11318.359</v>
       </c>
       <c r="I37">
-        <v>1375.9290000000001</v>
+        <v>1437.3140000000001</v>
       </c>
       <c r="J37">
-        <v>3307.48</v>
+        <v>2902.1039999999998</v>
       </c>
       <c r="K37">
-        <v>992</v>
+        <v>1481.213</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3698,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3978.9369999999999</v>
+        <v>4095.502</v>
       </c>
       <c r="O37">
-        <v>8013.884</v>
+        <v>7641.8370000000004</v>
       </c>
       <c r="P37">
-        <v>4567.6940000000004</v>
+        <v>4518.616</v>
       </c>
       <c r="Q37">
-        <v>-22.748999999999999</v>
+        <v>112.599</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43100</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>7890</v>
       </c>
       <c r="T37">
-        <v>3900.31</v>
+        <v>3676.5219999999999</v>
       </c>
       <c r="U37">
-        <v>1058.7619999999999</v>
+        <v>913.59500000000003</v>
       </c>
       <c r="V37">
-        <v>241.114</v>
+        <v>248.46299999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-108.92400000000001</v>
+        <v>1.839</v>
       </c>
       <c r="Y37">
-        <v>79.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>225.80500000000001</v>
+        <v>282.697</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43190</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>235.51</v>
+        <v>174.93700000000001</v>
       </c>
       <c r="D38">
-        <v>698.88099999999997</v>
+        <v>585.5</v>
       </c>
       <c r="E38">
-        <v>2539.9340000000002</v>
+        <v>2520.7620000000002</v>
       </c>
       <c r="F38">
-        <v>552.79999999999995</v>
+        <v>469.01499999999999</v>
       </c>
       <c r="G38">
-        <v>4618.5709999999999</v>
+        <v>3907.0650000000001</v>
       </c>
       <c r="H38">
-        <v>12248.540999999999</v>
+        <v>11692.465</v>
       </c>
       <c r="I38">
-        <v>1249.586</v>
+        <v>1609.24</v>
       </c>
       <c r="J38">
-        <v>3346.3470000000002</v>
+        <v>2867.5320000000002</v>
       </c>
       <c r="K38">
-        <v>1573.4880000000001</v>
+        <v>1486.5820000000001</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-473.851</v>
       </c>
       <c r="N38">
-        <v>4463.0680000000002</v>
+        <v>4307.6760000000004</v>
       </c>
       <c r="O38">
-        <v>8536.9249999999993</v>
+        <v>7804.4129999999996</v>
       </c>
       <c r="P38">
-        <v>5191.7849999999999</v>
+        <v>4489.4449999999997</v>
       </c>
       <c r="Q38">
-        <v>209.36</v>
+        <v>91.631</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43190</v>
       </c>
       <c r="S38">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>3711.616</v>
+        <v>3888.0520000000001</v>
       </c>
       <c r="U38">
-        <v>1271.4939999999999</v>
+        <v>979.57299999999998</v>
       </c>
       <c r="V38">
-        <v>370.93599999999998</v>
+        <v>200.702</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-49.701000000000001</v>
+        <v>-98.992999999999995</v>
       </c>
       <c r="Y38">
-        <v>81.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>235.51</v>
+        <v>174.93700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43281</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>147.06</v>
+        <v>176.852</v>
       </c>
       <c r="D39">
-        <v>661.09299999999996</v>
+        <v>584.98500000000001</v>
       </c>
       <c r="E39">
-        <v>2157.056</v>
+        <v>2655.9369999999999</v>
       </c>
       <c r="F39">
-        <v>427.39</v>
+        <v>473.78399999999999</v>
       </c>
       <c r="G39">
-        <v>4129.0119999999997</v>
+        <v>4049.2069999999999</v>
       </c>
       <c r="H39">
-        <v>11310.15</v>
+        <v>11485.133</v>
       </c>
       <c r="I39">
-        <v>1058.713</v>
+        <v>1532.741</v>
       </c>
       <c r="J39">
-        <v>3246.241</v>
+        <v>2832.3159999999998</v>
       </c>
       <c r="K39">
-        <v>1751.5540000000001</v>
+        <v>1780.3209999999999</v>
       </c>
       <c r="L39">
-        <v>-174.714</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-256.18200000000002</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>4460.076</v>
+        <v>4601.5140000000001</v>
       </c>
       <c r="O39">
-        <v>8513.9210000000003</v>
+        <v>8046.0479999999998</v>
       </c>
       <c r="P39">
-        <v>5256.3109999999997</v>
+        <v>4748.0010000000002</v>
       </c>
       <c r="Q39">
-        <v>-123.001</v>
+        <v>-37.063000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43281</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2796.2289999999998</v>
+        <v>3439.085</v>
       </c>
       <c r="U39">
-        <v>1070.681</v>
+        <v>919.66200000000003</v>
       </c>
       <c r="V39">
-        <v>420.03300000000002</v>
+        <v>74.387</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-314.45100000000002</v>
+        <v>-5.7670000000000003</v>
       </c>
       <c r="Y39">
-        <v>80.3</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>147.06</v>
+        <v>176.852</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43373</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>158.488</v>
+        <v>157.69399999999999</v>
       </c>
       <c r="D40">
-        <v>525.14599999999996</v>
+        <v>619.58600000000001</v>
       </c>
       <c r="E40">
-        <v>1933.3430000000001</v>
+        <v>2742.3389999999999</v>
       </c>
       <c r="F40">
-        <v>403.85599999999999</v>
+        <v>491.18599999999998</v>
       </c>
       <c r="G40">
-        <v>3464.069</v>
+        <v>4132.991</v>
       </c>
       <c r="H40">
-        <v>10626.717000000001</v>
+        <v>11450.89</v>
       </c>
       <c r="I40">
-        <v>1096.3030000000001</v>
+        <v>1616.9490000000001</v>
       </c>
       <c r="J40">
-        <v>3202.4630000000002</v>
+        <v>2773.3780000000002</v>
       </c>
       <c r="K40">
-        <v>1083.2280000000001</v>
+        <v>1541.124</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,37 +3947,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3626.9679999999998</v>
+        <v>4484.4679999999998</v>
       </c>
       <c r="O40">
-        <v>7660.2830000000004</v>
+        <v>7888.6419999999998</v>
       </c>
       <c r="P40">
-        <v>4447.6409999999996</v>
+        <v>4472.9260000000004</v>
       </c>
       <c r="Q40">
-        <v>-360.89</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43373</v>
       </c>
       <c r="S40">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>2966.4340000000002</v>
+        <v>3562.248</v>
       </c>
       <c r="U40">
-        <v>765.78899999999999</v>
+        <v>924.44200000000001</v>
       </c>
       <c r="V40">
-        <v>382.13499999999999</v>
+        <v>280.291</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-717.98199999999997</v>
+        <v>-251.572</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,42 +3986,42 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>158.488</v>
+        <v>157.69399999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43465</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>188.81700000000001</v>
+        <v>302</v>
       </c>
       <c r="D41">
-        <v>585.28300000000002</v>
+        <v>643.42200000000003</v>
       </c>
       <c r="E41">
-        <v>2240.6950000000002</v>
+        <v>2311.8150000000001</v>
       </c>
       <c r="F41">
-        <v>465.42700000000002</v>
+        <v>511.81299999999999</v>
       </c>
       <c r="G41">
-        <v>3971.0160000000001</v>
+        <v>3875.9859999999999</v>
       </c>
       <c r="H41">
-        <v>11093.999</v>
+        <v>11202.477000000001</v>
       </c>
       <c r="I41">
-        <v>1297.2360000000001</v>
+        <v>1117.6489999999999</v>
       </c>
       <c r="J41">
-        <v>3158.81</v>
+        <v>2748.431</v>
       </c>
       <c r="K41">
-        <v>1171.7840000000001</v>
+        <v>1921.4459999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4030,709 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4195.8069999999998</v>
+        <v>4495.2129999999997</v>
       </c>
       <c r="O41">
-        <v>8156.2489999999998</v>
+        <v>7862.2969999999996</v>
       </c>
       <c r="P41">
-        <v>4492.5789999999997</v>
+        <v>4819.0469999999996</v>
       </c>
       <c r="Q41">
-        <v>179.51400000000001</v>
+        <v>176.34299999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43465</v>
       </c>
       <c r="S41">
-        <v>8000</v>
+        <v>7580</v>
       </c>
       <c r="T41">
-        <v>2937.75</v>
+        <v>3340.18</v>
       </c>
       <c r="U41">
-        <v>788.85400000000004</v>
+        <v>1031.145</v>
       </c>
       <c r="V41">
-        <v>412.52800000000002</v>
+        <v>348.00200000000001</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-189.494</v>
+        <v>-221.483</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>52.963000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>188.81700000000001</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43555</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>172.107</v>
+      </c>
+      <c r="D42">
+        <v>621.82500000000005</v>
+      </c>
+      <c r="E42">
+        <v>2597.4589999999998</v>
+      </c>
+      <c r="F42">
+        <v>492.71100000000001</v>
+      </c>
+      <c r="G42">
+        <v>4172.0590000000002</v>
+      </c>
+      <c r="H42">
+        <v>11514.915000000001</v>
+      </c>
+      <c r="I42">
+        <v>1518.827</v>
+      </c>
+      <c r="J42">
+        <v>2708.2510000000002</v>
+      </c>
+      <c r="K42">
+        <v>1657.671</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-386.07600000000002</v>
+      </c>
+      <c r="N42">
+        <v>4562.098</v>
+      </c>
+      <c r="O42">
+        <v>7983.9480000000003</v>
+      </c>
+      <c r="P42">
+        <v>4594.4690000000001</v>
+      </c>
+      <c r="Q42">
+        <v>7.6779999999999999</v>
+      </c>
+      <c r="R42">
+        <v>43555</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3530.9670000000001</v>
+      </c>
+      <c r="U42">
+        <v>1057.4649999999999</v>
+      </c>
+      <c r="V42">
+        <v>297.49400000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-272.91800000000001</v>
+      </c>
+      <c r="Y42">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>172.107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>261.65100000000001</v>
+      </c>
+      <c r="D43">
+        <v>647.09400000000005</v>
+      </c>
+      <c r="E43">
+        <v>2701.183</v>
+      </c>
+      <c r="F43">
+        <v>526.63599999999997</v>
+      </c>
+      <c r="G43">
+        <v>4386.3580000000002</v>
+      </c>
+      <c r="H43">
+        <v>11975.592000000001</v>
+      </c>
+      <c r="I43">
+        <v>1523.8620000000001</v>
+      </c>
+      <c r="J43">
+        <v>2676.3739999999998</v>
+      </c>
+      <c r="K43">
+        <v>1782.278</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>4749.21</v>
+      </c>
+      <c r="O43">
+        <v>8132.22</v>
+      </c>
+      <c r="P43">
+        <v>4696.768</v>
+      </c>
+      <c r="Q43">
+        <v>116.05500000000001</v>
+      </c>
+      <c r="R43">
+        <v>43646</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3843.3719999999998</v>
+      </c>
+      <c r="U43">
+        <v>1170.3389999999999</v>
+      </c>
+      <c r="V43">
+        <v>252.52699999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>121.372</v>
+      </c>
+      <c r="Y43">
+        <v>72.8</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>261.65100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>225.80500000000001</v>
+      </c>
+      <c r="D44">
+        <v>681.048</v>
+      </c>
+      <c r="E44">
+        <v>2695.998</v>
+      </c>
+      <c r="F44">
+        <v>546.03200000000004</v>
+      </c>
+      <c r="G44">
+        <v>4440.0069999999996</v>
+      </c>
+      <c r="H44">
+        <v>11914.194</v>
+      </c>
+      <c r="I44">
+        <v>1375.9290000000001</v>
+      </c>
+      <c r="J44">
+        <v>3307.48</v>
+      </c>
+      <c r="K44">
+        <v>992</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3978.9369999999999</v>
+      </c>
+      <c r="O44">
+        <v>8013.884</v>
+      </c>
+      <c r="P44">
+        <v>4567.6940000000004</v>
+      </c>
+      <c r="Q44">
+        <v>-22.748999999999999</v>
+      </c>
+      <c r="R44">
+        <v>43738</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3900.31</v>
+      </c>
+      <c r="U44">
+        <v>1058.7619999999999</v>
+      </c>
+      <c r="V44">
+        <v>241.114</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-108.92400000000001</v>
+      </c>
+      <c r="Y44">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>225.80500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>235.51</v>
+      </c>
+      <c r="D45">
+        <v>698.88099999999997</v>
+      </c>
+      <c r="E45">
+        <v>2539.9340000000002</v>
+      </c>
+      <c r="F45">
+        <v>552.79999999999995</v>
+      </c>
+      <c r="G45">
+        <v>4618.5709999999999</v>
+      </c>
+      <c r="H45">
+        <v>12248.540999999999</v>
+      </c>
+      <c r="I45">
+        <v>1249.586</v>
+      </c>
+      <c r="J45">
+        <v>3346.3470000000002</v>
+      </c>
+      <c r="K45">
+        <v>1573.4880000000001</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4463.0680000000002</v>
+      </c>
+      <c r="O45">
+        <v>8536.9249999999993</v>
+      </c>
+      <c r="P45">
+        <v>5191.7849999999999</v>
+      </c>
+      <c r="Q45">
+        <v>209.36</v>
+      </c>
+      <c r="R45">
+        <v>43830</v>
+      </c>
+      <c r="S45">
+        <v>8700</v>
+      </c>
+      <c r="T45">
+        <v>3711.616</v>
+      </c>
+      <c r="U45">
+        <v>1271.4939999999999</v>
+      </c>
+      <c r="V45">
+        <v>370.93599999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-49.701000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>81.7</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>235.51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>147.06</v>
+      </c>
+      <c r="D46">
+        <v>661.09299999999996</v>
+      </c>
+      <c r="E46">
+        <v>2157.056</v>
+      </c>
+      <c r="F46">
+        <v>427.39</v>
+      </c>
+      <c r="G46">
+        <v>4129.0119999999997</v>
+      </c>
+      <c r="H46">
+        <v>11310.15</v>
+      </c>
+      <c r="I46">
+        <v>1058.713</v>
+      </c>
+      <c r="J46">
+        <v>3246.241</v>
+      </c>
+      <c r="K46">
+        <v>1751.5540000000001</v>
+      </c>
+      <c r="L46">
+        <v>-174.714</v>
+      </c>
+      <c r="M46">
+        <v>-256.18200000000002</v>
+      </c>
+      <c r="N46">
+        <v>4460.076</v>
+      </c>
+      <c r="O46">
+        <v>8513.9210000000003</v>
+      </c>
+      <c r="P46">
+        <v>5256.3109999999997</v>
+      </c>
+      <c r="Q46">
+        <v>-123.001</v>
+      </c>
+      <c r="R46">
+        <v>43921</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2796.2289999999998</v>
+      </c>
+      <c r="U46">
+        <v>1070.681</v>
+      </c>
+      <c r="V46">
+        <v>420.03300000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-314.45100000000002</v>
+      </c>
+      <c r="Y46">
+        <v>80.3</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>147.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>158.488</v>
+      </c>
+      <c r="D47">
+        <v>525.14599999999996</v>
+      </c>
+      <c r="E47">
+        <v>1933.3430000000001</v>
+      </c>
+      <c r="F47">
+        <v>403.85599999999999</v>
+      </c>
+      <c r="G47">
+        <v>3464.069</v>
+      </c>
+      <c r="H47">
+        <v>10626.717000000001</v>
+      </c>
+      <c r="I47">
+        <v>1096.3030000000001</v>
+      </c>
+      <c r="J47">
+        <v>3202.4630000000002</v>
+      </c>
+      <c r="K47">
+        <v>1083.2280000000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3626.9679999999998</v>
+      </c>
+      <c r="O47">
+        <v>7660.2830000000004</v>
+      </c>
+      <c r="P47">
+        <v>4447.6409999999996</v>
+      </c>
+      <c r="Q47">
+        <v>-360.89</v>
+      </c>
+      <c r="R47">
+        <v>44012</v>
+      </c>
+      <c r="S47">
+        <v>8000</v>
+      </c>
+      <c r="T47">
+        <v>2966.4340000000002</v>
+      </c>
+      <c r="U47">
+        <v>765.78899999999999</v>
+      </c>
+      <c r="V47">
+        <v>382.13499999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-717.98199999999997</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>158.488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>188.81700000000001</v>
+      </c>
+      <c r="D48">
+        <v>585.28300000000002</v>
+      </c>
+      <c r="E48">
+        <v>2240.6950000000002</v>
+      </c>
+      <c r="F48">
+        <v>465.42700000000002</v>
+      </c>
+      <c r="G48">
+        <v>3971.0160000000001</v>
+      </c>
+      <c r="H48">
+        <v>11093.999</v>
+      </c>
+      <c r="I48">
+        <v>1297.2360000000001</v>
+      </c>
+      <c r="J48">
+        <v>3158.81</v>
+      </c>
+      <c r="K48">
+        <v>1171.7840000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4195.8069999999998</v>
+      </c>
+      <c r="O48">
+        <v>8156.2489999999998</v>
+      </c>
+      <c r="P48">
+        <v>4492.5789999999997</v>
+      </c>
+      <c r="Q48">
+        <v>179.51400000000001</v>
+      </c>
+      <c r="R48">
+        <v>44104</v>
+      </c>
+      <c r="S48">
+        <v>8000</v>
+      </c>
+      <c r="T48">
+        <v>2937.75</v>
+      </c>
+      <c r="U48">
+        <v>788.85400000000004</v>
+      </c>
+      <c r="V48">
+        <v>412.52800000000002</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-189.494</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>52.963000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>188.81700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
         <v>209.851</v>
       </c>
-      <c r="D42">
+      <c r="D49">
         <v>617.33299999999997</v>
       </c>
-      <c r="E42">
+      <c r="E49">
         <v>2066.7750000000001</v>
       </c>
-      <c r="F42">
+      <c r="F49">
         <v>585.87699999999995</v>
       </c>
-      <c r="G42">
+      <c r="G49">
         <v>3956.3180000000002</v>
       </c>
-      <c r="H42">
+      <c r="H49">
         <v>11194.579</v>
       </c>
-      <c r="I42">
+      <c r="I49">
         <v>1054.4780000000001</v>
       </c>
-      <c r="J42">
+      <c r="J49">
         <v>3165.5259999999998</v>
       </c>
-      <c r="K42">
+      <c r="K49">
         <v>1043.6780000000001</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <v>3968.3110000000001</v>
       </c>
-      <c r="O42">
+      <c r="O49">
         <v>7839.1679999999997</v>
       </c>
-      <c r="P42">
+      <c r="P49">
         <v>4512.9229999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q49">
         <v>105.759</v>
       </c>
-      <c r="R42">
+      <c r="R49">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S49">
         <v>8400</v>
       </c>
-      <c r="T42">
+      <c r="T49">
         <v>3355.4110000000001</v>
       </c>
-      <c r="U42">
+      <c r="U49">
         <v>934.9</v>
       </c>
-      <c r="V42">
+      <c r="V49">
         <v>257.89299999999997</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
         <v>-194.874</v>
       </c>
-      <c r="Y42">
+      <c r="Y49">
         <v>75.400000000000006</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
         <v>209.851</v>
       </c>
     </row>
